--- a/data/country_population_2020.xlsx
+++ b/data/country_population_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Data Vault\GitHub\FIFA-World-Rankings\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Data Vault\GitHub\FIFA-Football-World-Rankings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="252">
   <si>
     <t>Country</t>
   </si>
@@ -606,9 +606,6 @@
     <t>Guam</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
-  </si>
-  <si>
     <t>Kiribati</t>
   </si>
   <si>
@@ -663,12 +660,6 @@
     <t>American Samoa</t>
   </si>
   <si>
-    <t>Saint Kitts &amp; Nevis</t>
-  </si>
-  <si>
-    <t>Faeroe Islands</t>
-  </si>
-  <si>
     <t>Sint Maarten</t>
   </si>
   <si>
@@ -772,6 +763,18 @@
   </si>
   <si>
     <t>Population</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
   </si>
 </sst>
 </file>
@@ -1580,10 +1583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K240"/>
+  <dimension ref="A1:K241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="J240" sqref="J240"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="N241" sqref="N241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1605,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2162,7 +2165,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B17">
         <v>90003954</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B54">
         <v>26486282</v>
@@ -4612,7 +4615,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B87">
         <v>10712481</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B118">
         <v>5540555</v>
@@ -5837,7 +5840,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B122">
         <v>5121112</v>
@@ -5942,7 +5945,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B125">
         <v>4947267</v>
@@ -7727,7 +7730,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B176">
         <v>438202</v>
@@ -8322,7 +8325,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="B193">
         <v>164211</v>
@@ -8357,7 +8360,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B194">
         <v>119760</v>
@@ -8392,7 +8395,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B195">
         <v>115231</v>
@@ -8427,7 +8430,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B196">
         <v>112614</v>
@@ -8462,7 +8465,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B197">
         <v>111002</v>
@@ -8497,7 +8500,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B198">
         <v>106845</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B199">
         <v>105901</v>
@@ -8567,7 +8570,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B200">
         <v>104398</v>
@@ -8602,7 +8605,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B201">
         <v>98453</v>
@@ -8637,7 +8640,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B202">
         <v>98069</v>
@@ -8672,7 +8675,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B203">
         <v>85112</v>
@@ -8704,7 +8707,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B204">
         <v>77287</v>
@@ -8736,7 +8739,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B205">
         <v>72017</v>
@@ -8768,7 +8771,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B206">
         <v>65854</v>
@@ -8800,7 +8803,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B207">
         <v>62237</v>
@@ -8832,7 +8835,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B208">
         <v>59259</v>
@@ -8864,7 +8867,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B209">
         <v>57619</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B210">
         <v>56787</v>
@@ -8928,7 +8931,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B211">
         <v>55169</v>
@@ -8960,7 +8963,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="B212">
         <v>53264</v>
@@ -8992,7 +8995,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="B213">
         <v>48896</v>
@@ -9024,7 +9027,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B214">
         <v>42960</v>
@@ -9056,7 +9059,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B215">
         <v>39290</v>
@@ -9088,7 +9091,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B216">
         <v>38806</v>
@@ -9120,7 +9123,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B217">
         <v>38778</v>
@@ -9152,7 +9155,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B218">
         <v>38147</v>
@@ -9184,7 +9187,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B219">
         <v>33944</v>
@@ -9216,7 +9219,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B220">
         <v>33689</v>
@@ -9248,7 +9251,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B221">
         <v>30266</v>
@@ -9280,7 +9283,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B222">
         <v>26265</v>
@@ -9312,7 +9315,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B223">
         <v>18109</v>
@@ -9344,7 +9347,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B224">
         <v>17567</v>
@@ -9376,7 +9379,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B225">
         <v>15026</v>
@@ -9408,7 +9411,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B226">
         <v>11817</v>
@@ -9440,7 +9443,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B227">
         <v>11203</v>
@@ -9472,7 +9475,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B228">
         <v>10836</v>
@@ -9504,7 +9507,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B229">
         <v>9882</v>
@@ -9536,7 +9539,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B230">
         <v>6080</v>
@@ -9568,7 +9571,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B231">
         <v>5789</v>
@@ -9600,7 +9603,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B232">
         <v>4993</v>
@@ -9632,7 +9635,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B233">
         <v>3497</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B234">
         <v>1628</v>
@@ -9696,7 +9699,7 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B235">
         <v>1360</v>
@@ -9728,7 +9731,7 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B236">
         <v>801</v>
@@ -9760,7 +9763,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B237">
         <v>56286961</v>
@@ -9771,7 +9774,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B238">
         <v>3152879</v>
@@ -9782,7 +9785,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B239">
         <v>5463300</v>
@@ -9793,13 +9796,24 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B240">
         <v>1893667</v>
       </c>
       <c r="J240" s="2">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>251</v>
+      </c>
+      <c r="B241">
+        <v>1767881</v>
+      </c>
+      <c r="J241" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
